--- a/Uber.xlsx
+++ b/Uber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbekhor/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbekhor/Desktop/INSPER/2 semestre/CIencia dos Dados/Projeto-2-CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2AB188-095C-C243-9A23-896AAE055558}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997634DC-4815-6A42-B8BB-A2414F1B8A5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="4220" windowWidth="16840" windowHeight="9900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2096,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2205,21 +2205,33 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2233,11 +2245,17 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -2267,31 +2285,49 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2305,11 +2341,17 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2323,11 +2365,17 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2349,16 +2397,25 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2380,6 +2437,9 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2401,11 +2461,17 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2419,26 +2485,41 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2468,6 +2549,9 @@
       <c r="A56" t="s">
         <v>55</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -2489,16 +2573,25 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -2512,26 +2605,41 @@
       <c r="A63" t="s">
         <v>62</v>
       </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -2545,618 +2653,861 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3715,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Uber.xlsx
+++ b/Uber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbekhor/Desktop/INSPER/2 semestre/CIencia dos Dados/Projeto-2-CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5C9B1-BA62-D948-A788-CA866165FA82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4597537-B785-9F47-A2A2-64F9CE6340A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="504">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1691,12 +1691,15 @@
   <si>
     <t>Relevância</t>
   </si>
+  <si>
+    <t>Verificação</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,6 +1714,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1748,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1756,6 +1765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2096,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="296" workbookViewId="0">
+    <sheetView zoomScale="296" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4520,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4531,1612 +4541,2215 @@
     <col min="1" max="1" width="212.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>327</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>333</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>337</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>338</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>341</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>344</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>346</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>347</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>348</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>352</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>353</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>356</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>357</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>358</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>363</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>366</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>367</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>368</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>370</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>373</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>374</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>375</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>377</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>378</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>379</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>381</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>383</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>384</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>385</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>388</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>389</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>390</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>391</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>394</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>395</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>399</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>400</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>403</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>405</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>406</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>407</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>409</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>410</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>413</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>414</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>416</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>420</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>422</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>439</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>440</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>441</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>443</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>445</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>446</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>447</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>448</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>452</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>453</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>454</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>459</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>460</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>461</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>464</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>466</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>467</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>468</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>469</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>471</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>472</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>473</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>474</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>475</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>476</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>477</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>478</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>479</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>480</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>481</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>482</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>483</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>484</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>485</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>486</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>488</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>489</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>490</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>491</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>492</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>493</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>494</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>495</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>496</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>497</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>499</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>501</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>500</v>
       </c>
       <c r="B201">
         <v>0</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
